--- a/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Serie</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3241,6 +3244,17 @@
         <v>618.27</v>
       </c>
     </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>2.81</v>
+      </c>
+      <c r="C236">
+        <v>645.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>Serie</t>
   </si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3255,6 +3258,17 @@
         <v>645.24</v>
       </c>
     </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>3.1</v>
+      </c>
+      <c r="C237">
+        <v>636.4299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3269,6 +3272,17 @@
         <v>636.4299999999999</v>
       </c>
     </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>3.29</v>
+      </c>
+      <c r="C238">
+        <v>615.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/1/vivienda - reajustable en UF 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3283,6 +3286,17 @@
         <v>615.15</v>
       </c>
     </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>3.56</v>
+      </c>
+      <c r="C239">
+        <v>573.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
